--- a/prepare/reservoirs/All reservoir data.xlsx
+++ b/prepare/reservoirs/All reservoir data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26004"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24580" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24440" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6299" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6298" uniqueCount="12">
   <si>
     <t>collection</t>
   </si>
@@ -106,8 +106,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -119,13 +123,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -393,7 +401,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -401,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2672"/>
+  <dimension ref="A1:H2671"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -69782,19 +69790,19 @@
         <v>8</v>
       </c>
       <c r="B2669">
-        <v>15225990</v>
+        <v>8180010</v>
       </c>
       <c r="C2669">
-        <v>49.727808000000003</v>
+        <v>1680.9035100000001</v>
       </c>
       <c r="D2669">
-        <v>61.073086799999999</v>
+        <v>29.510230570000001</v>
       </c>
       <c r="E2669">
-        <v>-146.3042356</v>
+        <v>-98.9014174</v>
       </c>
       <c r="F2669">
-        <v>198.12</v>
+        <v>307.84800000000001</v>
       </c>
       <c r="G2669">
         <v>0</v>
@@ -69808,19 +69816,19 @@
         <v>8</v>
       </c>
       <c r="B2670">
-        <v>8180010</v>
+        <v>8202800</v>
       </c>
       <c r="C2670">
-        <v>1680.9035100000001</v>
+        <v>25.899899999999999</v>
       </c>
       <c r="D2670">
-        <v>29.510230570000001</v>
+        <v>29.4452316</v>
       </c>
       <c r="E2670">
-        <v>-98.9014174</v>
+        <v>-99.252817399999998</v>
       </c>
       <c r="F2670">
-        <v>307.84800000000001</v>
+        <v>299.322744</v>
       </c>
       <c r="G2670">
         <v>0</v>
@@ -69834,50 +69842,24 @@
         <v>8</v>
       </c>
       <c r="B2671">
-        <v>8202800</v>
+        <v>8072500</v>
       </c>
       <c r="C2671">
-        <v>25.899899999999999</v>
+        <v>331.51871999999997</v>
       </c>
       <c r="D2671">
-        <v>29.4452316</v>
+        <v>29.769951290000002</v>
       </c>
       <c r="E2671">
-        <v>-99.252817399999998</v>
-      </c>
-      <c r="F2671">
-        <v>299.322744</v>
+        <v>-95.647168199999996</v>
+      </c>
+      <c r="F2671" t="s">
+        <v>7</v>
       </c>
       <c r="G2671">
-        <v>0</v>
+        <v>7470</v>
       </c>
       <c r="H2671">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2672" spans="1:8">
-      <c r="A2672" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2672">
-        <v>8072500</v>
-      </c>
-      <c r="C2672">
-        <v>331.51871999999997</v>
-      </c>
-      <c r="D2672">
-        <v>29.769951290000002</v>
-      </c>
-      <c r="E2672">
-        <v>-95.647168199999996</v>
-      </c>
-      <c r="F2672" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2672">
-        <v>7470</v>
-      </c>
-      <c r="H2672">
         <v>9214095.5999999996</v>
       </c>
     </row>
